--- a/ra_exploer/examples/Adhesion_TR2_All.xlsx
+++ b/ra_exploer/examples/Adhesion_TR2_All.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hp06316p\技術開發二處主管資料夾\缺智慧\Hobob\Summary\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Adhesion_TR2_All" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -168,53 +163,51 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>PI/Glass peeling</t>
+  </si>
+  <si>
+    <t>Seal/PI peeling</t>
+  </si>
+  <si>
+    <t>Seal/Seal peeling</t>
+  </si>
+  <si>
+    <t>十字法-雙PI-日產</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字法-雙PI-CMC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T.B.D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Measure condition:
 Adhesion介面(T/C)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Measure condition:
 測試手法</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PI/Glass peeling</t>
-  </si>
-  <si>
-    <t>Seal/PI peeling</t>
-  </si>
-  <si>
-    <t>Seal/Seal peeling</t>
-  </si>
-  <si>
-    <t>十字法-雙PI-日產</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>十字法-雙PI-CMC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>T.B.D</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -222,21 +215,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -442,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,7 +470,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -654,21 +647,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.375" style="4" bestFit="1" customWidth="1"/>
@@ -683,7 +676,7 @@
     <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="31.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,10 +693,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>37</v>
@@ -715,7 +708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="15" customFormat="1" ht="16.5">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
@@ -747,7 +740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="15" customFormat="1" ht="16.5">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -779,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="15" customFormat="1" ht="16.5">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -811,7 +804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="15" customFormat="1" ht="16.5">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
@@ -843,7 +836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="16.5">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
@@ -875,7 +868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="16.5">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -907,7 +900,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="10" customFormat="1" ht="16.5">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -939,7 +932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="10" customFormat="1" ht="16.5">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -971,7 +964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="15" customFormat="1" ht="16.5">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -994,7 +987,7 @@
         <v>24</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>25</v>
@@ -1003,7 +996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="15" customFormat="1" ht="16.5">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +1019,7 @@
         <v>24</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>25</v>
@@ -1035,7 +1028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="15" customFormat="1" ht="16.5">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -1058,7 +1051,7 @@
         <v>24</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>25</v>
@@ -1067,7 +1060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="15" customFormat="1" ht="16.5">
       <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
@@ -1090,7 +1083,7 @@
         <v>24</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>25</v>
@@ -1099,7 +1092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="15" customFormat="1" ht="16.5">
       <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1115,7 @@
         <v>24</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>25</v>
@@ -1131,7 +1124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="15" customFormat="1" ht="16.5">
       <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1147,7 @@
         <v>24</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>25</v>
@@ -1163,7 +1156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="10" customFormat="1">
       <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
@@ -1183,7 +1176,7 @@
         <v>29</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>30</v>
@@ -1195,7 +1188,7 @@
         <v>210416</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="10" customFormat="1">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
@@ -1215,7 +1208,7 @@
         <v>29</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>32</v>
@@ -1227,7 +1220,7 @@
         <v>210416</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="10" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
@@ -1247,7 +1240,7 @@
         <v>29</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>30</v>
@@ -1259,7 +1252,7 @@
         <v>210416</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="10" customFormat="1">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1272,7 @@
         <v>29</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>32</v>
@@ -1291,7 +1284,7 @@
         <v>210416</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="10" customFormat="1">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
@@ -1311,7 +1304,7 @@
         <v>29</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>30</v>
@@ -1323,7 +1316,7 @@
         <v>210416</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="10" customFormat="1">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1336,7 @@
         <v>29</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>32</v>
@@ -1355,7 +1348,7 @@
         <v>210416</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="10" customFormat="1">
       <c r="A22" s="6" t="s">
         <v>7</v>
       </c>
@@ -1375,7 +1368,7 @@
         <v>29</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>30</v>
@@ -1387,7 +1380,7 @@
         <v>210416</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="10" customFormat="1">
       <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
@@ -1407,7 +1400,7 @@
         <v>29</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>32</v>
@@ -1419,7 +1412,7 @@
         <v>210416</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="15" customFormat="1">
       <c r="A24" s="11" t="s">
         <v>7</v>
       </c>
@@ -1439,10 +1432,10 @@
         <v>29</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>35</v>
@@ -1451,7 +1444,7 @@
         <v>20201208</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="15" customFormat="1">
       <c r="A25" s="11" t="s">
         <v>7</v>
       </c>
@@ -1471,10 +1464,10 @@
         <v>29</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>35</v>
@@ -1483,7 +1476,7 @@
         <v>20201208</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="15" customFormat="1">
       <c r="A26" s="11" t="s">
         <v>7</v>
       </c>
@@ -1503,10 +1496,10 @@
         <v>29</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>35</v>
@@ -1515,7 +1508,7 @@
         <v>20201208</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="15" customFormat="1">
       <c r="A27" s="11" t="s">
         <v>7</v>
       </c>
@@ -1535,10 +1528,10 @@
         <v>29</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I27" s="17" t="s">
         <v>35</v>

--- a/ra_exploer/examples/Adhesion_TR2_All.xlsx
+++ b/ra_exploer/examples/Adhesion_TR2_All.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Adhesion_TR2_All" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" calcMode="manual"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="45">
   <si>
     <t>項目</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>K1M</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>PI/PI</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -93,9 +89,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>K1M</t>
-  </si>
-  <si>
     <t>協立法 雙PI --協立STD</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -190,6 +183,9 @@
   <si>
     <t>Measure condition:
 測試手法</t>
+  </si>
+  <si>
+    <t>723K1M</t>
   </si>
 </sst>
 </file>
@@ -647,7 +643,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -658,7 +654,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -693,13 +689,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
@@ -713,31 +709,31 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E2" s="11">
         <v>0.8</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" ht="16.5">
@@ -745,31 +741,31 @@
         <v>7</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="11">
         <v>3.4</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="15" customFormat="1" ht="16.5">
@@ -777,31 +773,31 @@
         <v>7</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E4" s="11">
         <v>0.6</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="15" customFormat="1" ht="16.5">
@@ -809,31 +805,31 @@
         <v>7</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="11">
         <v>1.1000000000000001</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="16.5">
@@ -841,31 +837,31 @@
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E6" s="6">
         <v>15.8</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="10" customFormat="1" ht="16.5">
@@ -873,31 +869,31 @@
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="6">
         <v>19.600000000000001</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="10" customFormat="1" ht="16.5">
@@ -905,31 +901,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E8" s="6">
         <v>3.6</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="10" customFormat="1" ht="16.5">
@@ -937,31 +933,31 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="6">
         <v>4.2</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="15" customFormat="1" ht="16.5">
@@ -969,31 +965,31 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E10" s="11">
         <v>1.51</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="15" customFormat="1" ht="16.5">
@@ -1001,31 +997,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="11">
         <v>2.0099999999999998</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="15" customFormat="1" ht="16.5">
@@ -1033,31 +1029,31 @@
         <v>7</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="11">
         <v>2.5099999999999998</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="15" customFormat="1" ht="16.5">
@@ -1065,31 +1061,31 @@
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E13" s="11">
         <v>0.59</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="16.5">
@@ -1097,31 +1093,31 @@
         <v>7</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="11">
         <v>1.23</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="15" customFormat="1" ht="16.5">
@@ -1129,31 +1125,31 @@
         <v>7</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="11">
         <v>1.82</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="10" customFormat="1">
@@ -1161,28 +1157,28 @@
         <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="19">
         <v>8</v>
       </c>
       <c r="F16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="J16" s="20">
         <v>210416</v>
@@ -1193,28 +1189,28 @@
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E17" s="19">
         <v>5.9</v>
       </c>
       <c r="F17" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="J17" s="21">
         <v>210416</v>
@@ -1225,28 +1221,28 @@
         <v>7</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E18" s="19">
         <v>7.7</v>
       </c>
       <c r="F18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="J18" s="21">
         <v>210416</v>
@@ -1257,28 +1253,28 @@
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E19" s="19">
         <v>1.2</v>
       </c>
       <c r="F19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="J19" s="21">
         <v>210416</v>
@@ -1289,28 +1285,28 @@
         <v>7</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" s="19">
         <v>7.6</v>
       </c>
       <c r="F20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="J20" s="21">
         <v>210416</v>
@@ -1321,28 +1317,28 @@
         <v>7</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" s="19">
         <v>6.3</v>
       </c>
       <c r="F21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="J21" s="21">
         <v>210416</v>
@@ -1353,28 +1349,28 @@
         <v>7</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22" s="19">
         <v>7.4</v>
       </c>
       <c r="F22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="J22" s="21">
         <v>210416</v>
@@ -1385,28 +1381,28 @@
         <v>7</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" s="19">
         <v>7.8</v>
       </c>
       <c r="F23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>29</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="J23" s="21">
         <v>210416</v>
@@ -1417,28 +1413,28 @@
         <v>7</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E24" s="17">
         <v>0.93</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J24" s="18">
         <v>20201208</v>
@@ -1449,28 +1445,28 @@
         <v>7</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E25" s="17">
         <v>0.71</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J25" s="18">
         <v>20201208</v>
@@ -1481,28 +1477,28 @@
         <v>7</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E26" s="17">
         <v>1.2</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J26" s="18">
         <v>20201208</v>
@@ -1513,28 +1509,28 @@
         <v>7</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E27" s="17">
         <v>0.91</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J27" s="18">
         <v>20201208</v>

--- a/ra_exploer/examples/Adhesion_TR2_All.xlsx
+++ b/ra_exploer/examples/Adhesion_TR2_All.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hp06316p\技術開發一部&amp;二部\技術開發一部\技術開發三課\個人暫存區\康良豪\RA選擇器\Summary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Adhesion_TR2_All" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" calcMode="manual"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Adhesion_TR2_All!$A$1:$J$34</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="60">
   <si>
     <t>項目</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -61,10 +69,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>seal/seal+ PI/seal peeling</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>十字法5mm/min 雙PI--積水STD</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -85,10 +89,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> PI/seal peeling</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>協立法 雙PI --協立STD</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -98,10 +98,6 @@
   </si>
   <si>
     <t>200427_ODF_INL北_723K1M、7142T_新PI接著方式(中文)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>seal/seal peeling</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -131,13 +127,7 @@
     <t>PI/PI</t>
   </si>
   <si>
-    <t>seal/seal peeling</t>
-  </si>
-  <si>
     <t>Nissan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PI/seal peeling</t>
   </si>
   <si>
     <t>7142T</t>
@@ -156,54 +146,139 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>PI/Glass peeling</t>
-  </si>
-  <si>
-    <t>Seal/PI peeling</t>
-  </si>
-  <si>
-    <t>Seal/Seal peeling</t>
-  </si>
-  <si>
-    <t>十字法-雙PI-日產</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>十字法-雙PI-CMC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>T.B.D</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Measure condition:
 Adhesion介面(T/C)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Measure condition:
 測試手法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字法-雙PI-日產</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字法-雙PI-CMC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T.B.D</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>723K1M</t>
+  </si>
+  <si>
+    <t>Adhesion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNP07 TR1&amp;TR2 Report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNP07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7142T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNP07 TR1&amp;TR2 Report</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adhesion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V386</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB205</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNP07</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2211, 膠寬 1000um</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>723K1M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>723K1M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>723K1M</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seal/Seal &amp; PI/Seal peeling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> PI/Seal peeling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seal/Seal peeling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> PI/Seal peeling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PI/Glass peeling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seal/Seal peeling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>N.A.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -211,21 +286,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -247,6 +322,13 @@
       <color rgb="FF3333FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="5">
@@ -305,7 +387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,6 +451,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -386,6 +471,92 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>302877</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>13128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>605437</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文字方塊 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17883306" y="6558164"/>
+          <a:ext cx="982917" cy="288951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>規格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100" baseline="0"/>
+            <a:t>&gt;28.33</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -643,36 +814,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.25" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.75" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.5" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="95.25" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5">
+    <row r="1" spans="1:10" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,13 +860,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>5</v>
@@ -704,18 +875,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" ht="16.5">
+    <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E2" s="11">
         <v>0.8</v>
@@ -724,30 +895,30 @@
         <v>9</v>
       </c>
       <c r="G2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="15" customFormat="1" ht="16.5">
+    </row>
+    <row r="3" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="11">
         <v>3.4</v>
@@ -756,30 +927,30 @@
         <v>9</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" ht="16.5">
+    </row>
+    <row r="4" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E4" s="11">
         <v>0.6</v>
@@ -788,30 +959,30 @@
         <v>9</v>
       </c>
       <c r="G4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="14" t="s">
+    </row>
+    <row r="5" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" ht="16.5">
-      <c r="A5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="11">
         <v>1.1000000000000001</v>
@@ -820,30 +991,30 @@
         <v>9</v>
       </c>
       <c r="G5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" ht="16.5">
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E6" s="6">
         <v>15.8</v>
@@ -852,30 +1023,30 @@
         <v>9</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="10" customFormat="1" ht="16.5">
+    </row>
+    <row r="7" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="6">
         <v>19.600000000000001</v>
@@ -884,30 +1055,30 @@
         <v>9</v>
       </c>
       <c r="G7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="10" customFormat="1" ht="16.5">
+    </row>
+    <row r="8" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E8" s="6">
         <v>3.6</v>
@@ -916,30 +1087,30 @@
         <v>9</v>
       </c>
       <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="10" customFormat="1" ht="16.5">
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="6">
         <v>4.2</v>
@@ -948,30 +1119,30 @@
         <v>9</v>
       </c>
       <c r="G9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" ht="16.5">
-      <c r="A10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" s="12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E10" s="11">
         <v>1.51</v>
@@ -980,30 +1151,30 @@
         <v>9</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" ht="16.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="11">
         <v>2.0099999999999998</v>
@@ -1012,30 +1183,30 @@
         <v>9</v>
       </c>
       <c r="G11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="15" customFormat="1" ht="16.5">
-      <c r="A12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="E12" s="11">
         <v>2.5099999999999998</v>
@@ -1044,30 +1215,30 @@
         <v>9</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="15" customFormat="1" ht="16.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E13" s="11">
         <v>0.59</v>
@@ -1076,30 +1247,30 @@
         <v>9</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="15" customFormat="1" ht="16.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="11">
         <v>1.23</v>
@@ -1108,30 +1279,30 @@
         <v>9</v>
       </c>
       <c r="G14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>22</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="15" customFormat="1" ht="16.5">
-      <c r="A15" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="E15" s="11">
         <v>1.82</v>
@@ -1140,405 +1311,630 @@
         <v>9</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="10" customFormat="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16" s="19">
         <v>8</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J16" s="20">
         <v>210416</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="10" customFormat="1">
+    <row r="17" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17" s="19">
         <v>5.9</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J17" s="21">
         <v>210416</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="10" customFormat="1">
+    <row r="18" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E18" s="19">
         <v>7.7</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J18" s="21">
         <v>210416</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="10" customFormat="1">
+    <row r="19" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E19" s="19">
         <v>1.2</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J19" s="21">
         <v>210416</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="10" customFormat="1">
+    <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E20" s="19">
         <v>7.6</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J20" s="21">
         <v>210416</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="10" customFormat="1">
+    <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E21" s="19">
         <v>6.3</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J21" s="21">
         <v>210416</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="10" customFormat="1">
+    <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E22" s="19">
         <v>7.4</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J22" s="21">
         <v>210416</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="10" customFormat="1">
+    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E23" s="19">
         <v>7.8</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J23" s="21">
         <v>210416</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="15" customFormat="1">
+    <row r="24" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E24" s="17">
         <v>0.93</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J24" s="18">
         <v>20201208</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="15" customFormat="1">
+    <row r="25" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E25" s="17">
         <v>0.71</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J25" s="18">
         <v>20201208</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="15" customFormat="1">
+    <row r="26" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E26" s="17">
         <v>1.2</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J26" s="18">
         <v>20201208</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="15" customFormat="1">
+    <row r="27" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E27" s="17">
         <v>0.91</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J27" s="18">
         <v>20201208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="22">
+        <v>28.33</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="22">
+        <v>29.67</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="22">
+        <v>32.75</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="22">
+        <v>27.58</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="22">
+        <v>7.81</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="22">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="22">
+        <v>13.23</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ra_exploer/examples/Adhesion_TR2_All.xlsx
+++ b/ra_exploer/examples/Adhesion_TR2_All.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hp06316p\技術開發一部&amp;二部\技術開發一部\技術開發三課\個人暫存區\康良豪\RA選擇器\Summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\td_toolkits_reconstruc\ra_exploer\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7965"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19170" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Adhesion_TR2_All" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="59">
   <si>
     <t>項目</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -183,10 +183,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SNP07</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>7142T</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -211,10 +207,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SNP07</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2211, 膠寬 1000um</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -260,6 +252,10 @@
   </si>
   <si>
     <t>INX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S-NP07</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -824,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28:I34"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -880,13 +876,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="11">
         <v>0.8</v>
@@ -898,7 +894,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>11</v>
@@ -930,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>11</v>
@@ -962,7 +958,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>11</v>
@@ -994,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>11</v>
@@ -1026,7 +1022,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>16</v>
@@ -1058,7 +1054,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>16</v>
@@ -1090,7 +1086,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>16</v>
@@ -1122,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>16</v>
@@ -1346,7 +1342,7 @@
         <v>33</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>25</v>
@@ -1378,7 +1374,7 @@
         <v>33</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I17" s="19" t="s">
         <v>25</v>
@@ -1410,7 +1406,7 @@
         <v>33</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>25</v>
@@ -1442,7 +1438,7 @@
         <v>33</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I19" s="19" t="s">
         <v>25</v>
@@ -1474,7 +1470,7 @@
         <v>33</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I20" s="19" t="s">
         <v>25</v>
@@ -1506,7 +1502,7 @@
         <v>33</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I21" s="19" t="s">
         <v>25</v>
@@ -1538,7 +1534,7 @@
         <v>33</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I22" s="19" t="s">
         <v>25</v>
@@ -1570,7 +1566,7 @@
         <v>33</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I23" s="19" t="s">
         <v>25</v>
@@ -1590,7 +1586,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E24" s="17">
         <v>0.93</v>
@@ -1602,7 +1598,7 @@
         <v>34</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I24" s="17" t="s">
         <v>28</v>
@@ -1634,7 +1630,7 @@
         <v>34</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>28</v>
@@ -1666,7 +1662,7 @@
         <v>34</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>28</v>
@@ -1698,7 +1694,7 @@
         <v>34</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I27" s="17" t="s">
         <v>28</v>
@@ -1718,7 +1714,7 @@
         <v>38</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E28" s="22">
         <v>28.33</v>
@@ -1727,13 +1723,13 @@
         <v>24</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J28" s="22" t="s">
         <v>39</v>
@@ -1750,7 +1746,7 @@
         <v>38</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E29" s="22">
         <v>29.67</v>
@@ -1759,13 +1755,13 @@
         <v>24</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J29" s="22" t="s">
         <v>39</v>
@@ -1782,7 +1778,7 @@
         <v>38</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="22">
         <v>32.75</v>
@@ -1791,30 +1787,30 @@
         <v>24</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J30" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="22" t="s">
+      <c r="D31" s="22" t="s">
         <v>44</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>45</v>
       </c>
       <c r="E31" s="22">
         <v>27.58</v>
@@ -1823,30 +1819,30 @@
         <v>24</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J31" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E32" s="22">
         <v>7.81</v>
@@ -1855,30 +1851,30 @@
         <v>24</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J32" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E33" s="22">
         <v>18.760000000000002</v>
@@ -1887,30 +1883,30 @@
         <v>24</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E34" s="22">
         <v>13.23</v>
@@ -1919,16 +1915,16 @@
         <v>24</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
